--- a/Narrative Design.xlsx
+++ b/Narrative Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\JV\DISTANCE PROJECT\ExpressivePlatformer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3FDC91-9D73-47B1-AF78-4F2621BF5086}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260E69D1-DB5C-4CF8-863A-987ECD7FA6DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -593,7 +593,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
